--- a/questionsexcel.xlsx
+++ b/questionsexcel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d12817add44a0cbc/Desktop/Python Projects/CORE stuff/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="172" documentId="11_F25DC773A252ABDACC1048BA991B65185BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{927BBA99-5DA5-476C-B59B-07EE8E71E08B}"/>
+  <xr:revisionPtr revIDLastSave="184" documentId="11_F25DC773A252ABDACC1048BA991B65185BDE58EE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{030DD17C-EC72-48AE-8A98-A244390AD6C0}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -91,15 +91,6 @@
   </si>
   <si>
     <t>message3</t>
-  </si>
-  <si>
-    <t>True: The term inflation shock is used to refer to an exogenous shift in the Phillips curve.</t>
-  </si>
-  <si>
-    <t>False: The central bank needs to increase the interest rate immediately to decrease output below equilibrium.</t>
-  </si>
-  <si>
-    <t>False: Inflation decreases if the nominal interest rate is above the stabilizing interest rate. It could be that the interest rate is increasing, but it is still below the stabilizing interest rate. Then inflation increases.</t>
   </si>
   <si>
     <t>If the central bank does not change the interest rate, it accepts costly recession and unemployment below equilibrium to prioritise inflation.</t>
@@ -169,15 +160,6 @@
     </r>
   </si>
   <si>
-    <t>False: If the central bank does not change the interest rate, inflation soars up. Hence, it chooses a not sustainable policy.</t>
-  </si>
-  <si>
-    <t>True: A more inflation-averse central bank’s immediate response is to choose a higher interest rate than a less inflation-averse central bank. A higher increase in the interest rate leads to a larger decrease in the output.</t>
-  </si>
-  <si>
-    <t>True: In order to shorten the period of inflation away from target a more inflation-averse central bank increases the interest rates greater than a less inflation-averse one.</t>
-  </si>
-  <si>
     <t>A lower value of BETA reflects the central bank focuses on achieving an output target than an inflation target.</t>
   </si>
   <si>
@@ -187,15 +169,6 @@
     <t>With BETA = 1 1 the central bank is equally concerned about inflation and output deviations from its targets.</t>
   </si>
   <si>
-    <t>False: The value of BETA does not reflect whether the central bank focuses on achieving an inflation target or an output target. Rather, a central bank with a lower BETA is willing to trade off a longer period during which inflation is away from target to reduce the impact on unemployment of the adjustment path back to equilibrium than would a more inflation-averse central bank with a higher BETA.</t>
-  </si>
-  <si>
-    <t>True: BETA &lt; 1 characterizes a central bank that places a greater weight on deviations in inflation target than on deviations in employment.</t>
-  </si>
-  <si>
-    <t>True: The central bank is indifferent between inflation and output deviations from targets.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A higher level of central bank credibility reduces the cost of disinflation. </t>
   </si>
   <si>
@@ -208,30 +181,50 @@
     <t>True</t>
   </si>
   <si>
-    <t>True: If the expectations are better formed and the central bank has a high level of credibility, it needs to increase the interest rate less. This leads to a lower decrease in output and a lower increase in unemployment than a less credible central bank.</t>
-  </si>
-  <si>
-    <t>False, BETA does not reflect the credibility of the central bank.</t>
-  </si>
-  <si>
-    <t>False: If the public is better informed about monetary policy, and the central bank has a high level of credibility, it is more likely that inflation expectations will stay close to the target.</t>
-  </si>
-  <si>
     <t>False</t>
+  </si>
+  <si>
+    <t>The central bank needs to increase the interest rate immediately to decrease output below equilibrium.</t>
+  </si>
+  <si>
+    <t>Inflation decreases if the nominal interest rate is above the stabilizing interest rate. It could be that the interest rate is increasing, but it is still below the stabilizing interest rate. Then inflation increases.</t>
+  </si>
+  <si>
+    <t>In order to shorten the period of inflation away from target a more inflation-averse central bank increases the interest rates greater than a less inflation-averse one.</t>
+  </si>
+  <si>
+    <t>A more inflation-averse central bank’s immediate response is to choose a higher interest rate than a less inflation-averse central bank. A higher increase in the interest rate leads to a larger decrease in the output.</t>
+  </si>
+  <si>
+    <t>BETA &lt; 1 characterizes a central bank that places a greater weight on deviations in inflation target than on deviations in employment.</t>
+  </si>
+  <si>
+    <t>The central bank is indifferent between inflation and output deviations from targets.</t>
+  </si>
+  <si>
+    <t>BETA does not reflect the credibility of the central bank.</t>
+  </si>
+  <si>
+    <t>If the public is better informed about monetary policy, and the central bank has a high level of credibility, it is more likely that inflation expectations will stay close to the target.</t>
+  </si>
+  <si>
+    <t>The term inflation shock is used to refer to an exogenous shift in the Phillips curve.</t>
+  </si>
+  <si>
+    <t>If the central bank does not change the interest rate, inflation soars up. Hence, it chooses a not sustainable policy.</t>
+  </si>
+  <si>
+    <t>The value of BETA does not reflect whether the central bank focuses on achieving an inflation target or an output target. Rather, a central bank with a lower BETA is willing to trade off a longer period during which inflation is away from target to reduce the impact on unemployment of the adjustment path back to equilibrium than would a more inflation-averse central bank with a higher BETA.</t>
+  </si>
+  <si>
+    <t>If the expectations are better formed and the central bank has a high level of credibility, it needs to increase the interest rate less. This leads to a lower decrease in output and a lower increase in unemployment than a less credible central bank.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -267,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -284,9 +277,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,7 +561,7 @@
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -637,22 +627,22 @@
         <v>18</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="L2" s="1"/>
     </row>
@@ -664,34 +654,34 @@
         <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>27</v>
+        <v>22</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="188.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="174" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -699,31 +689,31 @@
         <v>14</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="116" x14ac:dyDescent="0.35">
@@ -734,31 +724,31 @@
         <v>15</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>40</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/questionsexcel.xlsx
+++ b/questionsexcel.xlsx
@@ -88,74 +88,10 @@
     <t>If the central bank does not change the interest rate, it accepts costly recession and unemployment below equilibrium to prioritise inflation.</t>
   </si>
   <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0e101a"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">The immediate response of a more inflation-averse </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>central bank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0e101a"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> is to dampen output by more than would a less inflation-averse one.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t/>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0e101a"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A more inflation-averse </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>central bank</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF0e101a"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> chooses a higher interest rate to stabilize the economy than a less inflation-averse one.</t>
-    </r>
+    <t>The immediate response of a more inflation-averse central bank is to dampen output by more than would a less inflation-averse one.</t>
+  </si>
+  <si>
+    <t>A more inflation-averse central bank chooses a higher interest rate to stabilize the economy than a less inflation-averse one.</t>
   </si>
   <si>
     <t>If the central bank does not change the interest rate, inflation soars up. Hence, it chooses a not sustainable policy.</t>
@@ -230,7 +166,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -262,7 +198,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -271,16 +207,13 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -590,21 +523,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="6" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="6" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="6" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="6" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="5" width="22.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="5" width="25.005" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="5" width="30.005" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="5" width="32.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="5" width="34.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -638,9 +571,9 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3"/>
+      <c r="L1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="84">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="100.5">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -676,7 +609,7 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="87" customFormat="1" s="4">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="100.5" customFormat="1" s="3">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
@@ -710,9 +643,9 @@
       <c r="K3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="3"/>
+      <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="162" customFormat="1" s="4">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="195" customFormat="1" s="3">
       <c r="A4" s="2" t="s">
         <v>29</v>
       </c>
@@ -746,9 +679,9 @@
       <c r="K4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3"/>
+      <c r="L4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="110.25" customFormat="1" s="4">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="110.25" customFormat="1" s="3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -782,7 +715,7 @@
       <c r="K5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L5" s="3"/>
+      <c r="L5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/questionsexcel.xlsx
+++ b/questionsexcel.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d12817add44a0cbc/Desktop/Python Projects/CORE stuff/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="39" documentId="11_07641FCBAE1DB599940F6289ECDCF74AB1C8CA88" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1879025E-E33E-476C-8268-CBEFDA950177}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView xWindow="14510" yWindow="5230" windowWidth="14400" windowHeight="9310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -82,80 +88,79 @@
     <t>q2</t>
   </si>
   <si>
-    <t>Which of the following statements is/are correct in response to an inflation shock?</t>
-  </si>
-  <si>
-    <t>If the central bank does not change the interest rate, it accepts costly recession and unemployment below equilibrium to prioritise inflation.</t>
-  </si>
-  <si>
-    <t>The immediate response of a more inflation-averse central bank is to dampen output by more than would a less inflation-averse one.</t>
-  </si>
-  <si>
-    <t>A more inflation-averse central bank chooses a higher interest rate to stabilize the economy than a less inflation-averse one.</t>
-  </si>
-  <si>
-    <t>If the central bank does not change the interest rate, inflation soars up. Hence, it chooses a not sustainable policy.</t>
-  </si>
-  <si>
-    <t>A more inflation-averse central bank’s immediate response is to choose a higher interest rate than a less inflation-averse central bank. A higher increase in the interest rate leads to a larger decrease in the output.</t>
-  </si>
-  <si>
-    <t>In order to shorten the period of inflation away from target a more inflation-averse central bank increases the interest rates greater than a less inflation-averse one.</t>
-  </si>
-  <si>
     <t>q3</t>
   </si>
   <si>
-    <t>Which of the following statements about the value of BETA in the central bank’s loss function is/are true?</t>
-  </si>
-  <si>
-    <t>A lower value of BETA reflects the central bank focuses on achieving an output target than an inflation target.</t>
-  </si>
-  <si>
-    <t>A more inflation-averse central bank is characterized by BETA &gt; 1</t>
-  </si>
-  <si>
-    <t>With BETA = 1 the central bank is equally concerned about inflation and output deviations from its targets.</t>
-  </si>
-  <si>
-    <t>The value of BETA does not reflect whether the central bank focuses on achieving an inflation target or an output target. Rather, a central bank with a lower BETA is willing to trade off a longer period during which inflation is away from target to reduce the impact on unemployment of the adjustment path back to equilibrium than would a more inflation-averse central bank with a higher BETA.</t>
-  </si>
-  <si>
-    <t>BETA &lt; 1 characterizes a central bank that places a greater weight on deviations in inflation target than on deviations in employment.</t>
-  </si>
-  <si>
-    <t>The central bank is indifferent between inflation and output deviations from targets.</t>
-  </si>
-  <si>
     <t>q4</t>
   </si>
   <si>
     <t>Which of the statements is/are true?</t>
   </si>
   <si>
-    <t xml:space="preserve">A higher level of central bank credibility reduces the cost of disinflation. </t>
-  </si>
-  <si>
-    <t>BETA &lt; 1 reflects a less credible central bank, than BETA &gt; 1.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the absence of rational expectations, it is more likely that inflation expectations will be higher than the inflation target. </t>
-  </si>
-  <si>
-    <t>If the expectations are better formed and the central bank has a high level of credibility, it needs to increase the interest rate less. This leads to a lower decrease in output and a lower increase in unemployment than a less credible central bank.</t>
-  </si>
-  <si>
-    <t>BETA does not reflect the credibility of the central bank.</t>
-  </si>
-  <si>
-    <t>If the public is better informed about monetary policy, and the central bank has a high level of credibility, it is more likely that inflation expectations will stay close to the target.</t>
+    <t>Which of the following statements is/are correct in response to an inflation shock? Use Figure 5.</t>
+  </si>
+  <si>
+    <t>If the central bank does not change the interest rate, inflation rises period by period. It will eventually have to change its policy and accept costly recession and unemployment above equilibrium to reduce inflation.</t>
+  </si>
+  <si>
+    <t>If the central bank does not change the interest rate, inflation rises period by period.  This is not a sustainable policy.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A policy of gradually increasing the interest rate to 4% achieves the central bank’s inflation target at the cost of somewhat higher unemployment. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">It is pointless to raise the interest rate by so much that unemployment goes up above the post-shock equilibrium level. </t>
+  </si>
+  <si>
+    <t>The policy succeeds in stabilizing inflation at the cost of higher unemployment  but at a higher inflation rate than the central bank’s target. The answer would be correct only if the central bank adopted an inflation target of 4%.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Although costly, that is the only way to bring inflation down to its target. </t>
+  </si>
+  <si>
+    <t>Which of the following statements about the value of beta in the central bank’s loss function is/are true? Use Figure 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A central bank with a higher beta is willing to trade off a longer period during which inflation is away from target in order to reduce the initial rise in unemployment.  .</t>
+  </si>
+  <si>
+    <t>An inflation-averse central bank, i.e. with beta &gt;1 seeks to get inflation back to its target immediately.</t>
+  </si>
+  <si>
+    <t>The central bank cannot avoid an increase in unemployment above equilibrium by choosing a value of beta below 1 but above zero.</t>
+  </si>
+  <si>
+    <t>This is true of a central bank with a lower value of beta (select a value below the benchmark to see this). It prefers a lower initial rise in unemployment and is willing to accept that this extends the period during which inflation is above its target.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As Figure 6 shows, an inflation averse central bank still places some weight on increases in unemployment and inflation does not return to target immediately.  </t>
+  </si>
+  <si>
+    <t>With any positive weight on inflation in its loss function, the central bank cannot avoid unemployment above equilibrium as it adjusts to the shock.</t>
+  </si>
+  <si>
+    <t>If the public’s inflation expectations are influenced by their knowledge of the inflation target, the central bank faces a more favourable trade-off when confronted by an inflation shock.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If past inflation has no effect on inflation expectations, the central bank can achieve a costless return to its inflation target following an oil shock. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">A higher degree of anchoring of inflation expectations is reflected in a higher value of beta. </t>
+  </si>
+  <si>
+    <t>Compare the paths for inflation and unemployment when anchoring is present.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Following an oil shock, full anchoring of inflation expectations avoids the increase in unemployment above equilibrium but cannot prevent the economy from moving to higher unemployment and lower output, albeit with inflation remaining at target.  Check what happens when anchoring is complete (= 1). To restore the initial level of unemployment, the supply shock would have to be reversed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anchoring of inflation expectations is a feature of the Phillips curve. Beta is a characteristic of the central bank’s preferences reflected in its loss function. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -198,32 +203,38 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -234,10 +245,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -275,71 +286,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -367,7 +378,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -390,11 +401,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -403,13 +414,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -419,7 +430,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -428,7 +439,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -437,7 +448,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -445,10 +456,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -513,31 +524,31 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView tabSelected="1" topLeftCell="J3" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" style="4" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="5" width="22.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="5" width="23.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="5" width="25.005" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="5" width="23.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="5" width="30.005" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="5" width="32.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="5" width="34.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="5" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" width="13.54296875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.81640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="32.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.54296875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
+    <row r="1" spans="1:12" ht="19.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -573,7 +584,7 @@
       </c>
       <c r="L1" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="100.5">
+    <row r="2" spans="1:12" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -609,84 +620,84 @@
       </c>
       <c r="L2" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="100.5" customFormat="1" s="3">
+    <row r="3" spans="1:12" s="3" customFormat="1" ht="100.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="L3" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="195" customFormat="1" s="3">
+    <row r="4" spans="1:12" s="3" customFormat="1" ht="195" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
+      <c r="G4" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K4" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="L4" s="2"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="110.25" customFormat="1" s="3">
+    <row r="5" spans="1:12" s="3" customFormat="1" ht="110.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>39</v>
